--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3924838.257842861</v>
+        <v>3917821.242951149</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7640747.122076057</v>
+        <v>7640747.122076056</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>279.2318806021087</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>326.443217486872</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>17.83981377311385</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>156.5739613985149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>15.35717510869747</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>26.32882004050054</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>163.9206648785247</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.8147058133354</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>14.52687838733164</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>190.271393580297</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274078</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>218.4530746249749</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>22.98304609919622</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>96.24193553405004</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>205.7779339874283</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>114.930904319359</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>246.7083340210954</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>8.528507262571569</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>161.1706059301403</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896932</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2608,10 +2608,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>58.40168825977469</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>94.50065167198437</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>79.47420870022107</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>91.78533898600361</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>115.5269768002181</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896931</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274202</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3362,10 +3362,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>136.1640824242867</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>33.3514698018592</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274302</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,16 +3720,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>127.7178027211467</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>118.4093331729687</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>103.3388316365583</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>172.7935996261259</v>
+        <v>36.56241635926716</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>725.8268082199834</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="C2" t="n">
-        <v>356.8642912795717</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="D2" t="n">
-        <v>356.8642912795717</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>1121.864230298082</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>710.8783255084747</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>1112.426648284105</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y2" t="n">
-        <v>1112.426648284105</v>
+        <v>1507.652482896327</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1405.321187657107</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2679.129077105986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2679.129077105986</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2679.129077105986</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2679.129077105986</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2679.129077105986</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.476704221264</v>
+        <v>2679.129077105986</v>
       </c>
       <c r="X5" t="n">
-        <v>1563.476704221264</v>
+        <v>2305.663318844906</v>
       </c>
       <c r="Y5" t="n">
-        <v>1405.321187657107</v>
+        <v>2305.663318844906</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337.1618402196266</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C7" t="n">
-        <v>337.1618402196266</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>337.1618402196266</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>337.1618402196266</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>337.1618402196266</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>337.1618402196266</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>337.1618402196266</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>337.1618402196266</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>337.1618402196266</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>240.388315801204</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>2092.422847177208</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.422847177208</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4989,25 +4989,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>535.9356573576496</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5038,19 +5038,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>563.7235867775526</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1332.091733170014</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1167.181495781369</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V13" t="n">
-        <v>1167.181495781369</v>
+        <v>762.8670083965222</v>
       </c>
       <c r="W13" t="n">
-        <v>877.7643257444088</v>
+        <v>762.8670083965222</v>
       </c>
       <c r="X13" t="n">
-        <v>649.7747748463914</v>
+        <v>762.8670083965222</v>
       </c>
       <c r="Y13" t="n">
-        <v>428.9821957028613</v>
+        <v>762.8670083965222</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5299,13 +5299,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1401.702194260882</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1201.782184176434</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.782184176434</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>912.6535453899926</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>912.6535453899926</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>623.236375353032</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5494,25 +5494,25 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.881333182379</v>
@@ -5521,7 +5521,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5539,22 +5539,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,16 +5591,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M18" t="n">
         <v>1332.091733170013</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3943.156846022673</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>3774.220663094766</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>3774.220663094766</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>3774.220663094766</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4660.934562929846</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>4660.934562929846</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>4371.805924143404</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>4371.805924143404</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>4163.949425166204</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>4163.949425166204</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>3943.156846022673</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,22 +5731,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,7 +5755,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,13 +5764,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5779,22 +5779,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>213.3089140050929</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.3089140050929</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.3089140050929</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.3089140050929</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.3089140050929</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>714.9354044297402</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>714.9354044297402</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W22" t="n">
-        <v>714.9354044297402</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="X22" t="n">
-        <v>486.9458535317228</v>
+        <v>615.7499579788628</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.1532743881928</v>
+        <v>394.9573788353326</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6004,10 +6004,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6071,22 +6071,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341675</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>395.2468244550147</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C25" t="n">
-        <v>395.2468244550147</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1379.226513319151</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1155.441098108657</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>866.3124593222151</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V25" t="n">
-        <v>866.3124593222151</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W25" t="n">
-        <v>576.8952892852544</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X25" t="n">
-        <v>576.8952892852544</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y25" t="n">
-        <v>576.8952892852544</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155906</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514097</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>809.295358296326</v>
+        <v>324.384017443268</v>
       </c>
       <c r="C28" t="n">
-        <v>809.295358296326</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="D28" t="n">
-        <v>659.1787188839902</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E28" t="n">
-        <v>511.2656253015971</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.712528333287</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V28" t="n">
-        <v>1098.712528333287</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W28" t="n">
-        <v>809.295358296326</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X28" t="n">
-        <v>809.295358296326</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y28" t="n">
-        <v>809.295358296326</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="29">
@@ -6442,70 +6442,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614725</v>
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>824.3515998808206</v>
+        <v>324.384017443268</v>
       </c>
       <c r="C31" t="n">
-        <v>824.3515998808206</v>
+        <v>324.384017443268</v>
       </c>
       <c r="D31" t="n">
-        <v>674.2349604684848</v>
+        <v>324.384017443268</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.712528333286</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V31" t="n">
-        <v>1098.712528333286</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W31" t="n">
-        <v>1098.712528333286</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X31" t="n">
-        <v>1006.00006471106</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y31" t="n">
-        <v>1006.00006471106</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6715,22 +6715,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C34" t="n">
         <v>97.21709146028584</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X34" t="n">
-        <v>241.9805482336712</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003442</v>
@@ -6925,34 +6925,34 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080548</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822475</v>
       </c>
       <c r="I35" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
@@ -6961,28 +6961,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690736</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409609</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742902</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769787</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373972</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.68132280566</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263801</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>2525.058920465861</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>3138.95599022275</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>3907.324136615212</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>4237.186764279245</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>4568.699189774862</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.721670557072</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014295</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014295</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641235</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409492</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.53946268129</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475758</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710804</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3886.778400557303</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C37" t="n">
-        <v>3886.778400557303</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D37" t="n">
-        <v>3886.778400557303</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E37" t="n">
-        <v>3738.865306974909</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F37" t="n">
-        <v>3738.865306974909</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.68998529473</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.68998529473</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380587</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625199</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636328</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403511</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431059</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436456</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042139</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014295</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.77946957612</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4612.239992379871</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T37" t="n">
-        <v>4612.239992379871</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U37" t="n">
-        <v>4323.111353593429</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V37" t="n">
-        <v>4068.426865387542</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W37" t="n">
-        <v>4068.426865387542</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X37" t="n">
-        <v>4068.426865387542</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y37" t="n">
-        <v>4068.426865387542</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805492</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822486</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7198,28 +7198,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701565</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766207</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656583</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247869</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383451</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>545.9992215018333</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>318.009670603816</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,67 +7396,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.9892362638</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2525.05892046586</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3128.72170780014</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3436.041841080102</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>3765.904468744135</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4045.444533962832</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.74515569858</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>646.6490309742562</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C43" t="n">
-        <v>527.0436439308535</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D43" t="n">
-        <v>376.9270045185178</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E43" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1394.533612339157</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="U43" t="n">
-        <v>1164.055751909234</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="V43" t="n">
-        <v>1164.055751909234</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="W43" t="n">
-        <v>874.6385818722736</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X43" t="n">
-        <v>646.6490309742562</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y43" t="n">
-        <v>646.6490309742562</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7666,34 +7666,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147083</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211726</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011343</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>564.1830073829217</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C46" t="n">
-        <v>395.2468244550147</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>97.2170914602859</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>1035.248642250122</v>
+        <v>1461.984536861673</v>
       </c>
       <c r="W46" t="n">
-        <v>745.8314722131614</v>
+        <v>1172.567366824712</v>
       </c>
       <c r="X46" t="n">
-        <v>745.8314722131614</v>
+        <v>944.5778159266949</v>
       </c>
       <c r="Y46" t="n">
-        <v>745.8314722131614</v>
+        <v>723.7852367831648</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978322</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>96.03744927814694</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,16 +9008,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>43.65987261462459</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,13 +9245,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M18" t="n">
-        <v>230.7151863772034</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,25 +9719,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>29.47535963978191</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>18.73797368291309</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729829</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>52.49733361305033</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445211</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>85.30006332127653</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>360.5026862907234</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>444.4889386861647</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>67.78427777360241</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>229.1545972246318</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,10 +23658,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>13.72241686974274</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>80.7450643491627</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>51.56266414401857</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,19 +24177,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>39.52901837748198</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>189.3923027210317</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>90.96703739368775</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>108.8451328388531</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>50.92039635094687</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24657,19 +24657,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>66.9597539463481</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24894,19 +24894,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>133.9243164030335</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>51.71984429840978</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>75.26883114644332</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>61.75672755931652</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>192.358185587178</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>124.4198406026813</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>48.83748792565912</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.625520767234519</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26079,19 +26079,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>79.34404369770209</v>
+        <v>215.5752269645608</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>652326.8865326515</v>
+        <v>652326.8865326514</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>652326.8865326515</v>
+        <v>652326.8865326514</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>652326.8865326515</v>
+        <v>652326.8865326514</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>652326.8865326515</v>
+        <v>652326.8865326514</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>652326.8865326515</v>
+        <v>652326.8865326514</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>652326.8865326516</v>
+        <v>652326.8865326515</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="E2" t="n">
         <v>723403.7605147618</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="G2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147617</v>
       </c>
       <c r="H2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="I2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="J2" t="n">
         <v>723403.7605147616</v>
       </c>
       <c r="K2" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="L2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="M2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="N2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="O2" t="n">
         <v>723403.7605147611</v>
       </c>
-      <c r="M2" t="n">
-        <v>723403.7605147619</v>
-      </c>
-      <c r="N2" t="n">
-        <v>723403.7605147617</v>
-      </c>
-      <c r="O2" t="n">
-        <v>723403.7605147617</v>
-      </c>
       <c r="P2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147611</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338377</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007461</v>
+        <v>7916.731656007517</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007483</v>
@@ -26435,31 +26435,31 @@
         <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007385</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.7316560074</v>
+        <v>7916.731656007428</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007372</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007422</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26493,25 +26493,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871668</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871668</v>
-      </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61280.36886941222</v>
+        <v>-61280.36886941249</v>
       </c>
       <c r="C6" t="n">
-        <v>528687.5103451322</v>
+        <v>528687.5103451317</v>
       </c>
       <c r="D6" t="n">
-        <v>528687.510345132</v>
+        <v>528687.5103451317</v>
       </c>
       <c r="E6" t="n">
-        <v>98339.66643314154</v>
+        <v>97365.0751734201</v>
       </c>
       <c r="F6" t="n">
-        <v>623499.7029100371</v>
+        <v>622525.1116503157</v>
       </c>
       <c r="G6" t="n">
-        <v>623499.7029100371</v>
+        <v>622525.1116503159</v>
       </c>
       <c r="H6" t="n">
-        <v>623499.7029100371</v>
+        <v>622525.1116503153</v>
       </c>
       <c r="I6" t="n">
-        <v>623499.7029100374</v>
+        <v>622525.1116503155</v>
       </c>
       <c r="J6" t="n">
-        <v>447076.4837174446</v>
+        <v>446101.8924577227</v>
       </c>
       <c r="K6" t="n">
-        <v>623499.7029100376</v>
+        <v>622525.1116503157</v>
       </c>
       <c r="L6" t="n">
-        <v>623499.702910037</v>
+        <v>622525.1116503156</v>
       </c>
       <c r="M6" t="n">
-        <v>488698.6876762002</v>
+        <v>487724.0964164785</v>
       </c>
       <c r="N6" t="n">
-        <v>623499.7029100376</v>
+        <v>622525.1116503156</v>
       </c>
       <c r="O6" t="n">
-        <v>623499.7029100377</v>
+        <v>622525.1116503155</v>
       </c>
       <c r="P6" t="n">
-        <v>623499.7029100372</v>
+        <v>622525.1116503153</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.1480253948301e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.1480253948301e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.1480253948301e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26740,22 +26740,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26764,22 +26764,22 @@
         <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26825,13 +26825,13 @@
         <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.1480253948301e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990173</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545561</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990177</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545555</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990184</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.1480253948301e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>102.6984894701531</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>87.34095253392303</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>52.02592219651751</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>36.63858880169785</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>229.6639772575387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>270.9246991332803</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>192.2558333115942</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>190.7623767421583</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>273.4232328427182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>152.7829238717193</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>21.8741453697219</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.91932817939038e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565522</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171321</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304443</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565522</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171321</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,13 +35260,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958074</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>378.4011515192551</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>376.8544460126375</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M18" t="n">
-        <v>541.1395634276697</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>362.6699330377949</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>378.4011515192544</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109073</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>351.932547080926</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081122</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490677</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879394</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>334.8610358541588</v>
+        <v>570.7728848187828</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315249</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507424</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415082</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081122</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349822</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490677</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>418.4946367192897</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.556183571462</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686871</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>609.7603912467479</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>777.6835120841778</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.556183571462</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507422</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3917821.242951149</v>
+        <v>3922760.505800181</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7640747.122076056</v>
+        <v>7640747.122076055</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>326.443217486872</v>
+        <v>255.2062108218321</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>41.03250833502995</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>294.3337050002471</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>17.83981377311385</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>26.32882004050054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>163.9206648785247</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>362.4006936231293</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>14.52687838733164</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>41.03250833502997</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274078</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>22.98304609919622</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>114.930904319359</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056514</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>161.1706059301403</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896932</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2608,10 +2608,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>58.40168825977469</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>3.633341602776479</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>79.47420870022107</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2142598265031</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>115.5269768002181</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274202</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>33.3514698018592</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>103.3388316365583</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>64.3419076393841</v>
       </c>
     </row>
     <row r="44">
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>36.56241635926716</v>
+        <v>6.924765229694492</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1507.652482896327</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="C2" t="n">
-        <v>1507.652482896327</v>
+        <v>1234.444612556817</v>
       </c>
       <c r="D2" t="n">
-        <v>1507.652482896327</v>
+        <v>876.1789139500663</v>
       </c>
       <c r="E2" t="n">
-        <v>1121.864230298082</v>
+        <v>876.1789139500663</v>
       </c>
       <c r="F2" t="n">
-        <v>710.8783255084747</v>
+        <v>465.1930091604588</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4336,13 +4336,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1507.652482896327</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1507.652482896327</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D4" t="n">
         <v>517.7458231623355</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1919.063478780785</v>
+        <v>1099.346874905661</v>
       </c>
       <c r="C5" t="n">
-        <v>1550.100961840373</v>
+        <v>730.3843579652498</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>372.1186593584993</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,10 +4567,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2679.129077105986</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2679.129077105986</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2679.129077105986</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2679.129077105986</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2679.129077105986</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2679.129077105986</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>2305.663318844906</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y5" t="n">
-        <v>2305.663318844906</v>
+        <v>1485.946714969783</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.8857516585174</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>701.5342164887571</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>609.3508327416157</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C8" t="n">
-        <v>240.388315801204</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>433.9276925718032</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.090004781549</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>995.9506728057374</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4892,7 +4892,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785276</v>
+        <v>559.1928012785274</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661918</v>
+        <v>559.1928012785274</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837987</v>
+        <v>411.2797076961343</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858883</v>
+        <v>264.3897601982239</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>95.38995993655635</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>95.38995993655635</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>95.38995993655635</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5038,19 +5038,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,16 +5059,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775526</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170014</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>581.2185435662825</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C13" t="n">
-        <v>412.2823606383756</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765184</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>762.8670083965222</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>762.8670083965222</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X13" t="n">
-        <v>762.8670083965222</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.8670083965222</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5463,22 +5463,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
         <v>97.21709146028584</v>
@@ -5509,13 +5509,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5533,28 +5533,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,16 +5770,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213.3089140050929</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>213.3089140050929</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>213.3089140050929</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>213.3089140050929</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>213.3089140050929</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1133.156678913841</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>843.7395088768801</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>615.7499579788628</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y22" t="n">
-        <v>394.9573788353326</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6004,37 +6004,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701562</v>
+        <v>485.404702608941</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766204</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.546326320615</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557903</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>1336.117678709276</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>1046.700508672316</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>818.7109577742983</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155906</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514097</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>324.384017443268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1495.246228534896</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1271.460813324402</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352016</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150552</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>726.8250614170379</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.0324822735078</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6445,46 +6445,46 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>324.384017443268</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C31" t="n">
-        <v>324.384017443268</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>324.384017443268</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557903</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557903</v>
+        <v>675.0304288687223</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352016</v>
+        <v>675.0304288687223</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150552</v>
+        <v>675.0304288687223</v>
       </c>
       <c r="X31" t="n">
-        <v>726.8250614170379</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y31" t="n">
-        <v>506.0324822735078</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6715,22 +6715,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
         <v>97.21709146028584</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609669</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V34" t="n">
-        <v>731.31772835508</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>441.9005583181194</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>213.9110074201021</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.9110074201021</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080548</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822475</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6952,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247865</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383447</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324578</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>130.9054447954972</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028589</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,13 +7174,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7189,34 +7189,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,16 +7350,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
         <v>1158.436939387592</v>
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7432,7 +7432,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>564.1830073829216</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C43" t="n">
-        <v>395.2468244550147</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D43" t="n">
-        <v>245.130185042679</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1394.533612339157</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1194.613602254709</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1194.613602254709</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>1194.613602254709</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V43" t="n">
-        <v>1194.613602254709</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W43" t="n">
-        <v>1194.613602254709</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X43" t="n">
-        <v>966.6240513566914</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y43" t="n">
-        <v>745.8314722131613</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,7 +7651,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,10 +7666,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>542.1367719529251</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7842,16 +7842,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>1461.984536861673</v>
+        <v>1491.921558204676</v>
       </c>
       <c r="W46" t="n">
-        <v>1172.567366824712</v>
+        <v>1491.921558204676</v>
       </c>
       <c r="X46" t="n">
-        <v>944.5778159266949</v>
+        <v>1263.932007306658</v>
       </c>
       <c r="Y46" t="n">
-        <v>723.7852367831648</v>
+        <v>1043.139428163128</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978322</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>73.53204524669994</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>96.0374492781462</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.7164198729829</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>3.118140440917699</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>229.1545972246318</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>51.56266414401857</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>75.26883114644335</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24417,13 +24417,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>90.96703739368775</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>108.8451328388531</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,19 +24651,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>194.2874683808268</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>66.9597539463481</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0.02309257207429027</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>51.71984429840978</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25128,10 +25128,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>192.358185587178</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.625520767234519</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25851,10 +25851,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>154.2427457127107</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26082,10 +26082,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>215.5752269645608</v>
+        <v>245.2128780941335</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>652326.8865326515</v>
+        <v>652326.8865326514</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>652326.8865326514</v>
+        <v>652326.8865326515</v>
       </c>
     </row>
     <row r="12">
@@ -26316,46 +26316,46 @@
         <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
         <v>723403.7605147618</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="G2" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="H2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="I2" t="n">
         <v>723403.7605147613</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="K2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="L2" t="n">
         <v>723403.7605147613</v>
       </c>
       <c r="M2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="N2" t="n">
         <v>723403.7605147613</v>
       </c>
       <c r="O2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="P2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.760514761</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26426,13 +26426,13 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007517</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007484</v>
@@ -26441,22 +26441,22 @@
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007385</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="L4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="L4" t="n">
-        <v>7916.731656007481</v>
-      </c>
       <c r="M4" t="n">
-        <v>7916.731656007428</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
         <v>7916.731656007484</v>
@@ -26475,40 +26475,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61280.36886941249</v>
+        <v>-61280.36886941243</v>
       </c>
       <c r="C6" t="n">
-        <v>528687.5103451317</v>
+        <v>528687.5103451322</v>
       </c>
       <c r="D6" t="n">
-        <v>528687.5103451317</v>
+        <v>528687.510345132</v>
       </c>
       <c r="E6" t="n">
-        <v>97365.0751734201</v>
+        <v>98242.20730716934</v>
       </c>
       <c r="F6" t="n">
-        <v>622525.1116503157</v>
+        <v>623402.2437840649</v>
       </c>
       <c r="G6" t="n">
-        <v>622525.1116503159</v>
+        <v>623402.2437840649</v>
       </c>
       <c r="H6" t="n">
-        <v>622525.1116503153</v>
+        <v>623402.2437840651</v>
       </c>
       <c r="I6" t="n">
-        <v>622525.1116503155</v>
+        <v>623402.2437840651</v>
       </c>
       <c r="J6" t="n">
-        <v>446101.8924577227</v>
+        <v>446979.0245914722</v>
       </c>
       <c r="K6" t="n">
-        <v>622525.1116503157</v>
+        <v>623402.243784065</v>
       </c>
       <c r="L6" t="n">
-        <v>622525.1116503156</v>
+        <v>623402.2437840651</v>
       </c>
       <c r="M6" t="n">
-        <v>487724.0964164785</v>
+        <v>488601.228550228</v>
       </c>
       <c r="N6" t="n">
-        <v>622525.1116503156</v>
+        <v>623402.2437840651</v>
       </c>
       <c r="O6" t="n">
-        <v>622525.1116503155</v>
+        <v>623402.2437840652</v>
       </c>
       <c r="P6" t="n">
-        <v>622525.1116503153</v>
+        <v>623402.2437840648</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.1480253948301e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.1480253948301e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.1480253948301e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26740,13 +26740,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26755,28 +26755,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.1480253948301e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1480253948301e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>87.34095253392303</v>
+        <v>158.5779591989629</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>87.59666507201473</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>36.63858880169785</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>192.2558333115942</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>190.7623767421583</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>44.47535211858212</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,13 +27909,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>152.7829238717193</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>4.167450853507027</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.91932817939038e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958074</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>224.1074838346392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>378.4011515192544</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,10 +36691,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>570.7728848187828</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
